--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/21.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/21.xlsx
@@ -479,13 +479,13 @@
         <v>-0.4392035924219329</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.934593425479829</v>
+        <v>-1.943263921067691</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1276485804279806</v>
+        <v>0.1310680130568888</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1461469378196732</v>
+        <v>-0.147396738985491</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.4764863660764074</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.0764064365017</v>
+        <v>-2.085708402888879</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06621121681063345</v>
+        <v>0.06832536644626926</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1194236776117713</v>
+        <v>-0.1197828494421348</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.5527712002351864</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.286885509239007</v>
+        <v>-2.298148320212277</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05263568966136437</v>
+        <v>0.05554556550654541</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1423201517734015</v>
+        <v>-0.1430122145684922</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.6565842465672145</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.456316059924462</v>
+        <v>-2.467820508856777</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.0003348550768032229</v>
+        <v>0.001112052581287298</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1677673299498492</v>
+        <v>-0.1685148745723944</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.7691128442658607</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.52582164929217</v>
+        <v>-2.537706440752167</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.07199255533051126</v>
+        <v>-0.07347158404660177</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1717897624403026</v>
+        <v>-0.1716598181602118</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.8672021328248225</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.325668766677815</v>
+        <v>-2.337111163566266</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.12073918094168</v>
+        <v>-0.1254434558905878</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1477734313929455</v>
+        <v>-0.1473135162443092</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.9343648987259821</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.016372909123762</v>
+        <v>-2.029984937475304</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1676665866315765</v>
+        <v>-0.1758370157483015</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1171474626380446</v>
+        <v>-0.1160319858965903</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.9628152040899234</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.661481209738721</v>
+        <v>-1.676591247431535</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.0973769514390499</v>
+        <v>-0.1056160028160477</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.0742497896790561</v>
+        <v>-0.07338982135351088</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.9464179499141514</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.228492267995019</v>
+        <v>-1.245980724027923</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01306108615728409</v>
+        <v>0.008898489050103389</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01126477508534574</v>
+        <v>-0.01061651373298228</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.8784658897063821</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.9143497808031942</v>
+        <v>-0.9335377328139163</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07601397969299446</v>
+        <v>0.07430572342663128</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.01627858022952621</v>
+        <v>-0.01617053667079897</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.7524351876859401</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5472586495945655</v>
+        <v>-0.5695229229328322</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1452538403081577</v>
+        <v>0.1462276923847938</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.02000900310179794</v>
+        <v>-0.02176252085897929</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.566136249793901</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.1003569095925946</v>
+        <v>-0.126288823735224</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01027093425555757</v>
+        <v>0.01049724170964841</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04902353068445625</v>
+        <v>0.04703786528082042</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.32769550908628</v>
       </c>
       <c r="E14" t="n">
-        <v>0.355281758185374</v>
+        <v>0.3265392514677454</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1626075199965778</v>
+        <v>-0.1629345707689414</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1187948488047102</v>
+        <v>0.114864399343984</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.05464990993591811</v>
       </c>
       <c r="E15" t="n">
-        <v>0.899841734843955</v>
+        <v>0.8710919278858719</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1855565558894808</v>
+        <v>-0.1817399901798454</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2006203239635065</v>
+        <v>0.1967059350317802</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.2247817008590603</v>
       </c>
       <c r="E16" t="n">
-        <v>1.596718308490404</v>
+        <v>1.570498764873866</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.521231832326027</v>
+        <v>-0.5167567849273919</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2654318587189436</v>
+        <v>0.2620445471480354</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.4988662653436716</v>
       </c>
       <c r="E17" t="n">
-        <v>2.298011527611852</v>
+        <v>2.275791055716313</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6886862079204366</v>
+        <v>-0.6831862067619835</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3759370585274594</v>
+        <v>0.3724066622436422</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.7709486105291509</v>
       </c>
       <c r="E18" t="n">
-        <v>3.058163665422103</v>
+        <v>3.03915091918229</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.9654587642254532</v>
+        <v>-0.9617181210165451</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4876716188285203</v>
+        <v>0.4836725471075213</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.048417441659595</v>
       </c>
       <c r="E19" t="n">
-        <v>3.684210386082389</v>
+        <v>3.668853600262211</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.205061416232116</v>
+        <v>-1.20180550898939</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6074714847837609</v>
+        <v>0.6036432386893983</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.328366321722203</v>
       </c>
       <c r="E20" t="n">
-        <v>4.339355865194486</v>
+        <v>4.330214504097307</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.464417058860683</v>
+        <v>-1.462111642925138</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7213304150570939</v>
+        <v>0.7153953195675501</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.594081994158823</v>
       </c>
       <c r="E21" t="n">
-        <v>4.86055799249471</v>
+        <v>4.853724967429257</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.735364023282974</v>
+        <v>-1.734673420535974</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8683689381963271</v>
+        <v>0.8631215253576013</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.831505725872074</v>
       </c>
       <c r="E22" t="n">
-        <v>5.372928288893027</v>
+        <v>5.371763170516481</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.954357366462415</v>
+        <v>-1.95421209167737</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9553834242702128</v>
+        <v>0.9494775297424872</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.02828180514077</v>
       </c>
       <c r="E23" t="n">
-        <v>5.717677764214571</v>
+        <v>5.718606354800388</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.200255015813031</v>
+        <v>-2.203725550125121</v>
       </c>
       <c r="G23" t="n">
-        <v>1.065903224559638</v>
+        <v>1.059274606226912</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.180909302901991</v>
       </c>
       <c r="E24" t="n">
-        <v>6.135952341298094</v>
+        <v>6.141284436926093</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.427185910438697</v>
+        <v>-2.433258250448787</v>
       </c>
       <c r="G24" t="n">
-        <v>1.184857722670242</v>
+        <v>1.179749014400153</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.285307426766678</v>
       </c>
       <c r="E25" t="n">
-        <v>6.4200981404622</v>
+        <v>6.431568278264379</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.551912708676709</v>
+        <v>-2.557254294617298</v>
       </c>
       <c r="G25" t="n">
-        <v>1.25860475174204</v>
+        <v>1.253755932032133</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.341467688276278</v>
       </c>
       <c r="E26" t="n">
-        <v>6.579682856846611</v>
+        <v>6.595721485125244</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.602314298798923</v>
+        <v>-2.605911127270876</v>
       </c>
       <c r="G26" t="n">
-        <v>1.321380979458751</v>
+        <v>1.317597994855207</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.351306161515599</v>
       </c>
       <c r="E27" t="n">
-        <v>6.681978206239948</v>
+        <v>6.700119303769489</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.683100219716992</v>
+        <v>-2.690289496516626</v>
       </c>
       <c r="G27" t="n">
-        <v>1.334016235637475</v>
+        <v>1.327848992501476</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.31938477890648</v>
       </c>
       <c r="E28" t="n">
-        <v>6.861283792188264</v>
+        <v>6.88406200245453</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.71150399527753</v>
+        <v>-2.717588745696392</v>
       </c>
       <c r="G28" t="n">
-        <v>1.373433153947737</v>
+        <v>1.367438196486466</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.251145801431254</v>
       </c>
       <c r="E29" t="n">
-        <v>6.82390510101291</v>
+        <v>6.847635262634449</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.73155629575807</v>
+        <v>-2.738416331713204</v>
       </c>
       <c r="G29" t="n">
-        <v>1.358435539957923</v>
+        <v>1.353161846253561</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.153706708038396</v>
       </c>
       <c r="E30" t="n">
-        <v>6.758573789137109</v>
+        <v>6.783101137016285</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.637597820963822</v>
+        <v>-2.640677792411594</v>
       </c>
       <c r="G30" t="n">
-        <v>1.341297495466837</v>
+        <v>1.336400494169929</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.035396769331887</v>
       </c>
       <c r="E31" t="n">
-        <v>6.777763201195922</v>
+        <v>6.807364216191005</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.539770218728667</v>
+        <v>-2.541212016218439</v>
       </c>
       <c r="G31" t="n">
-        <v>1.303039855340756</v>
+        <v>1.298046490869848</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.905547185874766</v>
       </c>
       <c r="E32" t="n">
-        <v>6.733517903849025</v>
+        <v>6.766652235224107</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.408387061244202</v>
+        <v>-2.407375977941248</v>
       </c>
       <c r="G32" t="n">
-        <v>1.255786858926587</v>
+        <v>1.251395034269133</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.773069762340493</v>
       </c>
       <c r="E33" t="n">
-        <v>6.56422386766007</v>
+        <v>6.599792099202697</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.372650194147075</v>
+        <v>-2.373081638357939</v>
       </c>
       <c r="G33" t="n">
-        <v>1.197535320243602</v>
+        <v>1.193455945877604</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.645190200833072</v>
       </c>
       <c r="E34" t="n">
-        <v>6.269981835947331</v>
+        <v>6.303289913045232</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.337444054530994</v>
+        <v>-2.335922684420267</v>
       </c>
       <c r="G34" t="n">
-        <v>1.147785641593979</v>
+        <v>1.143653705496708</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.527668819219142</v>
       </c>
       <c r="E35" t="n">
-        <v>6.075020154320201</v>
+        <v>6.107806994249647</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.298000855355095</v>
+        <v>-2.297851200425777</v>
       </c>
       <c r="G35" t="n">
-        <v>1.08771050284545</v>
+        <v>1.083855975885451</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.42273764076659</v>
       </c>
       <c r="E36" t="n">
-        <v>5.877617272285073</v>
+        <v>5.910703422073155</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.236886162365839</v>
+        <v>-2.234071919670613</v>
       </c>
       <c r="G36" t="n">
-        <v>1.063651830403457</v>
+        <v>1.061860351395912</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.332399150628226</v>
       </c>
       <c r="E37" t="n">
-        <v>5.573606058796064</v>
+        <v>5.604830647268237</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.191001961036897</v>
+        <v>-2.189335316141125</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9595620819063936</v>
+        <v>0.9567617096680306</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.254536341488356</v>
       </c>
       <c r="E38" t="n">
-        <v>5.267130284129601</v>
+        <v>5.29887756981832</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.144652734391</v>
+        <v>-2.143178815843228</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8860676411543223</v>
+        <v>0.8834599952639595</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.186301152303043</v>
       </c>
       <c r="E39" t="n">
-        <v>4.950529075952685</v>
+        <v>4.984885467579858</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.086265411235561</v>
+        <v>-2.084770321990471</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8058847200977984</v>
+        <v>0.8028930815595265</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.123215951816496</v>
       </c>
       <c r="E40" t="n">
-        <v>4.659322484220946</v>
+        <v>4.694674628646118</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.104434979702875</v>
+        <v>-2.105093461391875</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7648529885989913</v>
+        <v>0.7623373257383557</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.061975132924238</v>
       </c>
       <c r="E41" t="n">
-        <v>4.339720877217213</v>
+        <v>4.373462588598113</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.999721060646948</v>
+        <v>-1.999299106748676</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6854409729344672</v>
+        <v>0.6828552277654679</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.000235468161261</v>
       </c>
       <c r="E42" t="n">
-        <v>3.965377687141041</v>
+        <v>3.995786108730397</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.908938920474472</v>
+        <v>-1.909090765475927</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6053339743786705</v>
+        <v>0.6036753597473983</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.935802268257853</v>
       </c>
       <c r="E43" t="n">
-        <v>3.665498409749303</v>
+        <v>3.694737332817841</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.856778702426759</v>
+        <v>-1.856395439802896</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5656776081814994</v>
+        <v>0.5633575917650454</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.8692543333189923</v>
       </c>
       <c r="E44" t="n">
-        <v>3.366806151455474</v>
+        <v>3.393501670749649</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.762637721621148</v>
+        <v>-1.761395220695785</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5158636874158764</v>
+        <v>0.5145233632684222</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.8001485881404697</v>
       </c>
       <c r="E45" t="n">
-        <v>3.084535054040096</v>
+        <v>3.11089184217718</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.679904096549807</v>
+        <v>-1.678849941828171</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4222045224802651</v>
+        <v>0.4196465182249931</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.7313813880632151</v>
       </c>
       <c r="E46" t="n">
-        <v>2.790993845410993</v>
+        <v>2.81636072094244</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.600954916130101</v>
+        <v>-1.600582603866919</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3845542623600025</v>
+        <v>0.3817903913239123</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.6640413702958764</v>
       </c>
       <c r="E47" t="n">
-        <v>2.462893298470081</v>
+        <v>2.486427813647438</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.480562270649951</v>
+        <v>-1.478877375153043</v>
       </c>
       <c r="G47" t="n">
-        <v>0.320628976795747</v>
+        <v>0.3181381347526567</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.6006456805056244</v>
       </c>
       <c r="E48" t="n">
-        <v>2.172368549196795</v>
+        <v>2.193768474065244</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.377376291921161</v>
+        <v>-1.374993493436798</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2905943275176641</v>
+        <v>0.2901606932346642</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.5422076301628858</v>
       </c>
       <c r="E49" t="n">
-        <v>1.894588559709051</v>
+        <v>1.913109269742229</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.292264248509729</v>
+        <v>-1.28816881361473</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2369361001286785</v>
+        <v>0.2363550009884968</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.4895103410767276</v>
       </c>
       <c r="E50" t="n">
-        <v>1.759732677840361</v>
+        <v>1.779265201200537</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.171477390045034</v>
+        <v>-1.166821296683126</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1978476926388708</v>
+        <v>0.1981046611028708</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.4428485963258806</v>
       </c>
       <c r="E51" t="n">
-        <v>1.48873899187916</v>
+        <v>1.504006714765793</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.095995823841236</v>
+        <v>-1.090479762153783</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1665223608484247</v>
+        <v>0.1673122468656063</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.4014655588052615</v>
       </c>
       <c r="E52" t="n">
-        <v>1.331608616335566</v>
+        <v>1.345241085360381</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.013625750744531</v>
+        <v>-1.008254233818078</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1439792183247944</v>
+        <v>0.1446114191481579</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.3653749334420797</v>
       </c>
       <c r="E53" t="n">
-        <v>1.090248066427449</v>
+        <v>1.102867262077173</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9414687140437323</v>
+        <v>-0.9348605363842796</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1004741653599879</v>
+        <v>0.1010815453658059</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.3328221556895581</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9464990316370334</v>
+        <v>0.9582086173261212</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9490186227218212</v>
+        <v>-0.9421169753960957</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04924691804236528</v>
+        <v>0.05032589358154681</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.3036997258718443</v>
       </c>
       <c r="E55" t="n">
-        <v>0.7861025285140765</v>
+        <v>0.7968587027998009</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.9018181880389248</v>
+        <v>-0.895658245143381</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02291641077091781</v>
+        <v>0.02246671595891793</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.2771270480801843</v>
       </c>
       <c r="E56" t="n">
-        <v>0.6421680676161151</v>
+        <v>0.6506816080342038</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.8533533517093015</v>
+        <v>-0.8466108496254851</v>
       </c>
       <c r="G56" t="n">
-        <v>0.01597680219482876</v>
+        <v>0.01589503950173787</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.2526393115472889</v>
       </c>
       <c r="E57" t="n">
-        <v>0.4992337396604263</v>
+        <v>0.5074129290656968</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.8219564775624008</v>
+        <v>-0.8145700942704936</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.0115932859058002</v>
+        <v>-0.01149838277989113</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.2301034364498797</v>
       </c>
       <c r="E58" t="n">
-        <v>0.3902820310206374</v>
+        <v>0.3973734845981809</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.8156286291364024</v>
+        <v>-0.8088510858984043</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.0273866261051596</v>
+        <v>-0.02739976653797777</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.2082891174136436</v>
       </c>
       <c r="E59" t="n">
-        <v>0.2437705852422221</v>
+        <v>0.25165630498122</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.7510069006327835</v>
+        <v>-0.743962168594149</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.09186965004014228</v>
+        <v>-0.09248579033450575</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.1879909810283107</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1841101001515109</v>
+        <v>0.1914088805579635</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.7343608923483333</v>
+        <v>-0.7272577583860625</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.07962860684596375</v>
+        <v>-0.0795862654513274</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.1685625329313663</v>
       </c>
       <c r="E61" t="n">
-        <v>0.02638694508300778</v>
+        <v>0.03356308144982404</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.7064871142447954</v>
+        <v>-0.6995285250435246</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1362317512343122</v>
+        <v>-0.1360696858962213</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.1503907607981814</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.06110643676469599</v>
+        <v>-0.05369815275142525</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.724869119709336</v>
+        <v>-0.7178871697386106</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1689893902019398</v>
+        <v>-0.16802575846194</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.132950577761325</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.1542808657341255</v>
+        <v>-0.1470521676360365</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.7586400320520541</v>
+        <v>-0.7516215808790561</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1840118250092994</v>
+        <v>-0.1831168155295723</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.1158054928923554</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.2680302924006404</v>
+        <v>-0.2600540496800062</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.7613498813087807</v>
+        <v>-0.7545854785036007</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2175170085994722</v>
+        <v>-0.216544616570927</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.09854342103100172</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.4213134412246902</v>
+        <v>-0.4129298450866924</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.74344969171424</v>
+        <v>-0.7356895361110604</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2379168005256485</v>
+        <v>-0.2370203309978306</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.08039616992939706</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.4478352147960467</v>
+        <v>-0.4369549364225951</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.77441147153005</v>
+        <v>-0.7663140448178702</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2544576853475531</v>
+        <v>-0.2526194848010991</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.06126143586115026</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.5335750788865691</v>
+        <v>-0.523709533936299</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.81458031460713</v>
+        <v>-0.8066215924635867</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2696232048678218</v>
+        <v>-0.2674886145589133</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.04049459772620259</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.5685067294615598</v>
+        <v>-0.5567942236762902</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.7659519528913249</v>
+        <v>-0.7557447566877822</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3197320553478084</v>
+        <v>-0.3185596367308087</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.01808552779143907</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.6493714929765381</v>
+        <v>-0.6369902851656323</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.8109316544279492</v>
+        <v>-0.8014311215004063</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3193188617380812</v>
+        <v>-0.3170222060910818</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.00674622267754922</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.7579406690165089</v>
+        <v>-0.7467026788607847</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.8095095675874041</v>
+        <v>-0.7980657106508617</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3580028359067072</v>
+        <v>-0.3568523180110711</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.03370721017427155</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.7867912192928648</v>
+        <v>-0.7747794036489589</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.9363950469278246</v>
+        <v>-0.927049279097918</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4019678040201499</v>
+        <v>-0.40163053291115</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.06286448413065236</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.8300276234089441</v>
+        <v>-0.8176595560308565</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.002984920257989</v>
+        <v>-0.9936084914181729</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4201658434252359</v>
+        <v>-0.4191219090402362</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.09336659250718872</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.8792604450343854</v>
+        <v>-0.8691496120048426</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.03592506523698</v>
+        <v>-1.028230611797891</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4532213322034089</v>
+        <v>-0.4523307028679546</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.1246932570413556</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.82126441476731</v>
+        <v>-0.8117069399642217</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.0615372288477</v>
+        <v>-1.053147792517339</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.467595505658405</v>
+        <v>-0.4667063363710416</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.1557845255598284</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.8041935324884055</v>
+        <v>-0.7958814787068623</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.124993838974774</v>
+        <v>-1.118740453001412</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4561662492027717</v>
+        <v>-0.4555603292450446</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.185017814166445</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.7206860819288825</v>
+        <v>-0.7127755413723392</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.166043091050672</v>
+        <v>-1.161115428743855</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4589184398541346</v>
+        <v>-0.4582468177323166</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.2108689742501548</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.5710326126588318</v>
+        <v>-0.5613831548260162</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.151438229997312</v>
+        <v>-1.145358589746768</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4385858101401401</v>
+        <v>-0.4392574322619581</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.2315300971057786</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.4342027457712322</v>
+        <v>-0.4225647024385989</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.174817980077033</v>
+        <v>-1.169774973971035</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4507859719877732</v>
+        <v>-0.4517291630545002</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.2453734226174135</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.3318037329634415</v>
+        <v>-0.319818198185172</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.255479796907375</v>
+        <v>-1.25216110759674</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3950369557326063</v>
+        <v>-0.3951975610226063</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.2503887008764499</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.1431625995218558</v>
+        <v>-0.1308237331055864</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.31161134576236</v>
+        <v>-1.309102983142179</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3726675589317942</v>
+        <v>-0.3729654087423395</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.2453247871830746</v>
       </c>
       <c r="E81" t="n">
-        <v>0.01422328443764741</v>
+        <v>0.02772434913428015</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.301528253646545</v>
+        <v>-1.301326767009999</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3230551248027166</v>
+        <v>-0.3230784855721711</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2290258081289271</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2256046668951361</v>
+        <v>0.2394254821236778</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.289225888432548</v>
+        <v>-1.289087183863912</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.287627057876817</v>
+        <v>-0.2871277214297262</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2016058624970681</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4077602667169054</v>
+        <v>0.4218103094957198</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.231013771048018</v>
+        <v>-1.230107081183564</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2696509457815491</v>
+        <v>-0.2695735632327309</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1636181812546528</v>
       </c>
       <c r="E84" t="n">
-        <v>0.6159353835667586</v>
+        <v>0.6279106980083917</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.153934912232766</v>
+        <v>-1.152596048133403</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2451819998260102</v>
+        <v>-0.2449221112658285</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1170418247784367</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7315507516934548</v>
+        <v>0.7418251101091793</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.066689738560517</v>
+        <v>-1.064454404933336</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2097772936695652</v>
+        <v>-0.2094590031857471</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.06478871606304265</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9568347120725761</v>
+        <v>0.9668389615914825</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.000215209029535</v>
+        <v>-0.9987537008905352</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1800273537692095</v>
+        <v>-0.1804974892544821</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.01177035772306379</v>
       </c>
       <c r="E87" t="n">
-        <v>1.100875756481174</v>
+        <v>1.109789350076172</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9435157014671863</v>
+        <v>-0.9431375490116409</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1504234186779447</v>
+        <v>-0.1503912976199447</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.03676882817371911</v>
       </c>
       <c r="E88" t="n">
-        <v>1.204476388867782</v>
+        <v>1.211731367831508</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.8876338208357468</v>
+        <v>-0.8884645881994738</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.114133923378409</v>
+        <v>-0.1140872018395</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.07492492484524667</v>
       </c>
       <c r="E89" t="n">
-        <v>1.327191970860568</v>
+        <v>1.333738826500202</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.789474787683955</v>
+        <v>-0.7920605328529543</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1122694419663186</v>
+        <v>-0.1126081731234094</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.09830383613984922</v>
       </c>
       <c r="E90" t="n">
-        <v>1.367162247397284</v>
+        <v>1.370692643681101</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6895943578329817</v>
+        <v>-0.6919669359807085</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.07818753938023687</v>
+        <v>-0.07835106476641863</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1052296533994971</v>
       </c>
       <c r="E91" t="n">
-        <v>1.412349275762818</v>
+        <v>1.415453338004089</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.5829933266195558</v>
+        <v>-0.5868566138681003</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.01833432794152566</v>
+        <v>-0.01674141547434427</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.09602239770239056</v>
       </c>
       <c r="E92" t="n">
-        <v>1.43682406191072</v>
+        <v>1.438416974377901</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4538243320649542</v>
+        <v>-0.4594279966378618</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.02029809262379786</v>
+        <v>-0.02074340729152501</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.07414340681664074</v>
       </c>
       <c r="E93" t="n">
-        <v>1.409229152992546</v>
+        <v>1.409709508814454</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3450507492922561</v>
+        <v>-0.351144990023709</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.01358625154989057</v>
+        <v>-0.01405930713134499</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.04415786349515765</v>
       </c>
       <c r="E94" t="n">
-        <v>1.408446567215818</v>
+        <v>1.409735789680091</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2056745585341117</v>
+        <v>-0.2115351915710192</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.0171984105267987</v>
+        <v>-0.01681441787888971</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.01012454374685383</v>
       </c>
       <c r="E95" t="n">
-        <v>1.335559506469565</v>
+        <v>1.334899564732475</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.09078775440477893</v>
+        <v>-0.09545844824759586</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.01930087977770722</v>
+        <v>-0.01911983381443454</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.02623345303749596</v>
       </c>
       <c r="E96" t="n">
-        <v>1.256693548791041</v>
+        <v>1.256722749752859</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0355034853626417</v>
+        <v>0.03143871147755188</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.03382543818606696</v>
+        <v>-0.03383127837843059</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.06366925191872851</v>
       </c>
       <c r="E97" t="n">
-        <v>1.175456473012881</v>
+        <v>1.174165790500518</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1339720487097062</v>
+        <v>0.1321323881151612</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.05268633942442553</v>
+        <v>-0.05230672692078927</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1030863609186655</v>
       </c>
       <c r="E98" t="n">
-        <v>1.079265584687634</v>
+        <v>1.076167362638726</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1949159160723262</v>
+        <v>0.1931696985555994</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.05812355851496952</v>
+        <v>-0.05722708898715159</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1430111561344406</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9421553885665801</v>
+        <v>0.9387607767552173</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1960416131504168</v>
+        <v>0.1943975990000536</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.05391423986887974</v>
+        <v>-0.05154896196160765</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.184390529409422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8482290348303325</v>
+        <v>0.8441029389254245</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2120057789764125</v>
+        <v>0.2110567477173218</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.04660377907769989</v>
+        <v>-0.04521089319897299</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2234276962189307</v>
       </c>
       <c r="E101" t="n">
-        <v>0.6973316045868276</v>
+        <v>0.6911804219798293</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1990682928428705</v>
+        <v>0.1971862908536892</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.05028456031488072</v>
+        <v>-0.04924792617033554</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2627755968942663</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6364052578012985</v>
+        <v>0.6316936826119361</v>
       </c>
       <c r="F102" t="n">
-        <v>0.207424148067141</v>
+        <v>0.206304291181414</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.0822055917264176</v>
+        <v>-0.08126386070778149</v>
       </c>
     </row>
   </sheetData>
